--- a/src/main/resources/example_excel/zhangsan-20180724185733.xlsx
+++ b/src/main/resources/example_excel/zhangsan-20180724185733.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yjiao/Downloads/µÁ»›≤‚ ‘ ˝æ›/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38819ADA-291E-1D47-92BA-25E7C1529EF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1847EE7-7CEC-7748-9B63-8AEE8B62C62A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1740" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5560" yWindow="2100" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$8</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>姓名</t>
   </si>
@@ -48,12 +52,6 @@
   </si>
   <si>
     <t>用户id</t>
-  </si>
-  <si>
-    <t>zhangsan</t>
-  </si>
-  <si>
-    <t>Zhang, San</t>
   </si>
   <si>
     <t>年龄</t>
@@ -116,70 +114,13 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测试部位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>左拇指</t>
   </si>
   <si>
-    <t>Left thumb</t>
+    <t>男</t>
   </si>
   <si>
-    <t>Left index finger</t>
-  </si>
-  <si>
-    <t>Left middle finger</t>
-  </si>
-  <si>
-    <t>Left ring finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left little thumb</t>
-  </si>
-  <si>
-    <t>Right thumb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right index finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right middle finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right ring finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right little thumb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Left wrist joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right wrist joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Right knee joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>left elbow joint</t>
-  </si>
-  <si>
-    <t>left elbow joint</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>right middle finger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
+    <t>张三</t>
   </si>
 </sst>
 </file>
@@ -574,7 +515,7 @@
   <dimension ref="A1:G877"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G635" sqref="G635"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -590,24 +531,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3">
         <v>43305.789965277778</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -615,10 +551,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -626,32 +559,23 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>33824</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -659,10 +583,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -672,33 +593,22 @@
       <c r="B8">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -717,9 +627,6 @@
       </c>
       <c r="E11">
         <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -739,9 +646,6 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4">
@@ -760,9 +664,6 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4">
@@ -779,10 +680,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -802,9 +700,6 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4">
@@ -823,11 +718,8 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
         <v>0.6</v>
       </c>
@@ -844,11 +736,8 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="4">
         <v>0.7</v>
       </c>
@@ -866,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:5">
       <c r="A19" s="4">
         <v>0.8</v>
       </c>
@@ -884,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:5">
       <c r="A20" s="4">
         <v>0.9</v>
       </c>
@@ -902,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:5">
       <c r="A21" s="4">
         <v>1</v>
       </c>
@@ -920,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:5">
       <c r="A22" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -935,10 +824,10 @@
         <v>-9.6228173470788398</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4">
         <v>1.2</v>
       </c>
@@ -956,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:5">
       <c r="A24" s="4">
         <v>1.3</v>
       </c>
@@ -974,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:5">
       <c r="A25" s="4">
         <v>1.4</v>
       </c>
@@ -992,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:5">
       <c r="A26" s="4">
         <v>1.5</v>
       </c>
@@ -1010,7 +899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:5">
       <c r="A27" s="4">
         <v>1.6</v>
       </c>
@@ -1028,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:5">
       <c r="A28" s="4">
         <v>1.7</v>
       </c>
@@ -1046,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:5">
       <c r="A29" s="4">
         <v>1.8</v>
       </c>
@@ -1064,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:5">
       <c r="A30" s="4">
         <v>1.9</v>
       </c>
@@ -1082,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:5">
       <c r="A31" s="4">
         <v>2</v>
       </c>
@@ -1100,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:5">
       <c r="A32" s="4">
         <v>2.1</v>
       </c>
@@ -12969,7 +12858,13 @@
       <c r="B877" s="4"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{85BB405C-EF84-F342-BFB6-6FB99E6BE9D2}">
+      <formula1>"左拇指,左食指,左中指,左无名指,左小指,右拇指,右食指,右中指,右无名指,右小指,左腕关节,右腕关节,左肘关节,右肘关节,左膝关节,右膝关节"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
